--- a/reference/hex-codes.xlsx
+++ b/reference/hex-codes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgangray/Documents/GitHub/pisaster-website/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10B1BB04-8E7A-FD47-BE4C-2469F29A9483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19517B3D-7445-8E47-8455-E8F8C658F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="3480" windowWidth="28040" windowHeight="17440" xr2:uid="{7AB21FF7-FA33-3B45-BC2C-BDFD1A1F27A9}"/>
+    <workbookView xWindow="5560" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{7AB21FF7-FA33-3B45-BC2C-BDFD1A1F27A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="67">
   <si>
     <t>teal</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>subset</t>
+  </si>
+  <si>
+    <t>hex</t>
   </si>
 </sst>
 </file>
@@ -654,319 +657,960 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F77902A-81A5-2647-BED6-D94EB4D9890D}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5">
+      <c r="D1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
         <v>0.1</v>
       </c>
-      <c r="E1" s="5">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
         <v>0.2</v>
       </c>
-      <c r="F1" s="5">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
         <v>0.3</v>
       </c>
-      <c r="G1" s="5">
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
         <v>0.4</v>
       </c>
-      <c r="H1" s="5">
+      <c r="B6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
         <v>0.5</v>
       </c>
-      <c r="I1" s="5">
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
         <v>0.6</v>
       </c>
-      <c r="J1" s="5">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
         <v>0.7</v>
       </c>
-      <c r="K1" s="5">
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
         <v>0.8</v>
       </c>
-      <c r="L1" s="5">
+      <c r="B10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
         <v>0.9</v>
       </c>
-      <c r="M1" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="5">
+        <v>0</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5">
+        <v>1</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="3" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="5">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5" s="3" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="5">
+        <v>0</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="5">
+        <v>1</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M6">
-    <sortCondition ref="A2:A6"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>